--- a/results/I3_N5_M3_T45_C200_DepCentral_s2_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepCentral_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.7290434521012</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4249999523162842</v>
+        <v>0.374000072479248</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.7290434521012</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.66483080554375</v>
+        <v>31.95858503258979</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31.29375422704608</v>
       </c>
     </row>
     <row r="5">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>154.9200000000474</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>152.65</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>157.9800000000433</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>156.3850000000439</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7900000000464</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2650000000031</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6150000000034</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6850000000049</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8750000000036</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9200000000055</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.17000000000189</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71500000000378</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.8600000000024</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.32000000000335</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3400000000311</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2050000000327</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4300000000331</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9950000000336</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000001513</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000001419</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000001623</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>52.2350000000408</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>44.35</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>44.52500000004348</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>45.78500000004296</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>50.8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>154.9200000000729</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>152.65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.9800000000778</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.3850000000785</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7900000000846</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>147.340000000055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2050000000548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>140.4300000000533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>152.9950000000557</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
